--- a/train/data/verify.xlsx
+++ b/train/data/verify.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>文本</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>真的比较实惠</t>
+  </si>
+  <si>
+    <t>真难看啊</t>
   </si>
 </sst>
 </file>
@@ -340,23 +343,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,13 +359,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -384,23 +366,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,17 +404,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,17 +435,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,10 +450,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,6 +463,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -493,13 +496,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,13 +580,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,151 +628,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,39 +687,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -746,6 +716,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -770,17 +755,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,10 +795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,133 +807,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,10 +1290,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:B98"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2089,6 +2092,14 @@
       </c>
       <c r="B98">
         <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
